--- a/biology/Écologie/Réservoir_de_biodiversité/Réservoir_de_biodiversité.xlsx
+++ b/biology/Écologie/Réservoir_de_biodiversité/Réservoir_de_biodiversité.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R%C3%A9servoir_de_biodiversit%C3%A9</t>
+          <t>Réservoir_de_biodiversité</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les réservoirs de biodiversité (parfois dénommés « cœurs d'habitat » ou « noyaux de biodiversité ») sont en France l'une des quatre composantes majeures de la trame verte et bleue dans le cadre de laquelle ils doivent être cartographiés ou sont encore à cartographier (les trois autres grands éléments, complémentaires, étant à prendre en compte et cartographier étant les corridors biologiques, les zones tampons et la matrice, dans laquelle peuvent s'intégrer des « espaces naturels-relais », qui sont d'autres espaces présentant une couverture végétale qui les rend susceptibles de constituer des espaces relais pour les déplacements de la faune et de la flore à travers le paysage mais pour lesquels le manque d'information quant à leur qualité écologique et biologique ne permet pas de les qualifier plus précisément[1],[2])
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les réservoirs de biodiversité (parfois dénommés « cœurs d'habitat » ou « noyaux de biodiversité ») sont en France l'une des quatre composantes majeures de la trame verte et bleue dans le cadre de laquelle ils doivent être cartographiés ou sont encore à cartographier (les trois autres grands éléments, complémentaires, étant à prendre en compte et cartographier étant les corridors biologiques, les zones tampons et la matrice, dans laquelle peuvent s'intégrer des « espaces naturels-relais », qui sont d'autres espaces présentant une couverture végétale qui les rend susceptibles de constituer des espaces relais pour les déplacements de la faune et de la flore à travers le paysage mais pour lesquels le manque d'information quant à leur qualité écologique et biologique ne permet pas de les qualifier plus précisément,)
 Les réservoirs de biodiversité sont en quelque sorte équivalents aux « points chauds de biodiversité » (« Hotspot ») existant ou à restaurer aux échelles régionales.
 Ces réservoirs de biodiversité sont souvent mieux appréhendés à l'échelle des « sous-trames », mais plusieurs sous-trames peuvent se superposer dans un même réservoir (par exemple la sous-trame des milieux forestiers et la sous-trame zones humides dans le cadre d'une forêt alluviale inondée.
 Ces réservoirs représentent sur les cartes de la Trame verte et bleue par exemple des forêts, des dunes, landes, coteaux calcaires, des cours d'eau ou parties de cours d'eau, des zones humides, importants voire vitaux pour la préservation et/ou restauration de la biodiversité, ou l'association de deux ou plus de ces milieux.
@@ -499,7 +511,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R%C3%A9servoir_de_biodiversit%C3%A9</t>
+          <t>Réservoir_de_biodiversité</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -517,10 +529,12 @@
           <t>Histoire de la notion et de son application</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette notion est issue du corpus théorique et pratique de l'écologie du paysage.
-Elle s'est diffusée à la suite du Grenelle de l'environnement, aux lois Grenelle (Grenelle I, Grenelle II) et à la stratégie paneuropéenne pour la protection de la diversité biologique et paysagère[3].
+Elle s'est diffusée à la suite du Grenelle de l'environnement, aux lois Grenelle (Grenelle I, Grenelle II) et à la stratégie paneuropéenne pour la protection de la diversité biologique et paysagère.
 </t>
         </is>
       </c>
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R%C3%A9servoir_de_biodiversit%C3%A9</t>
+          <t>Réservoir_de_biodiversité</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,7 +563,9 @@
           <t>Éléments de définitions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Un réservoir de biodiversité est un espace (parfois dit « cœur de nature ») où, dans une matrice paysagère, la biodiversité est plus marquée, mieux représentée et plus représentative de l'écopotentialité locale et régionale. Les espèces présentes ou potentiellement présentes y trouvent plus facilement les conditions vitales à leur maintien et au fonctionnement des écosystèmes.
 Les espèces typiques des milieux qui y sont présentes peuvent s'y épanouir durant toutes les phases normales  de leur cycle de vie (cf. espèces migratrices qui effectuent une partie de leur cycle de vie ailleurs) ; naissance, métamorphose le cas échéant, alimentation, reproduction, repos, hivernage, halte migratoire, et interactions normales avec les autres espèces dans le cas des symbioses, commensalisme, mutualisme, relations prédateur-proies, parasitoses, pollinisation, etc.).
@@ -558,7 +574,7 @@
 des réservoirs biologiques qui sont des entités écologiques jouant un important rôle de noyaux de dispersion ;
 des espaces rassemblant des milieux de grand intérêt ;
 des espaces pouvant aussi accueillir des individus d'espèces venant d’autres réservoirs de biodiversité.
-une zone d'extension, autour du réservoir, pouvant parfois aussi jouer le rôle de zone-tampon[4].
+une zone d'extension, autour du réservoir, pouvant parfois aussi jouer le rôle de zone-tampon.
 En France, l’article R.371-19 II du code de l'environnement, les définit comme 
 « des espaces dans lesquels la biodiversité, rare ou commune, menacée ou non menacée, est la plus riche ou la mieux représentée, où les espèces peuvent effectuer tout ou partie de leur cycle de vie (alimentation, reproduction, repos) et où les habitats naturels peuvent assurer leur fonctionnement, en ayant notamment une taille suffisante. Ce sont des espaces pouvant abriter des noyaux de populations d’espèces à partir desquels les individus se dispersent, ou susceptibles de permettre l’accueil de nouvelles populations. »
 </t>
@@ -571,7 +587,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>R%C3%A9servoir_de_biodiversit%C3%A9</t>
+          <t>Réservoir_de_biodiversité</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -589,7 +605,9 @@
           <t>Paramètres de définition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les paramètres étudiés pour les définir et caractériser sont au moins :
 leur taille (superficie) ;
@@ -599,7 +617,7 @@
 leur connectivité écologique ;
 leur éventuelle fragmentation ;
 leur densité de maillage (par exemple dans le cas d'un bocage, ou d'un complexe de zones humides et réseau hydrographique.
-L'analyse de ces critères, avec une approche écosystémique et avec des outils spécifiques (en partie sur SIG) permettent d'évaluer un Potentiel de Réservoir de Biodiversité (PRB)[4].
+L'analyse de ces critères, avec une approche écosystémique et avec des outils spécifiques (en partie sur SIG) permettent d'évaluer un Potentiel de Réservoir de Biodiversité (PRB).
 </t>
         </is>
       </c>
